--- a/Content/AbilitySystem/Table/AttributeTable.xlsx
+++ b/Content/AbilitySystem/Table/AttributeTable.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/6bebb5840dcb243f/바탕 화면/RS테이블/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\d\Content\AbilitySystem\Table\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="8" documentId="8_{ABA711C5-4B40-4E99-B432-4227E9D6040F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1498FA62-0E33-44BA-98A2-24D77C0EBA37}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5CDAFE56-FF05-4714-8A15-17B87002139C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{8FDC40CD-C174-45E0-916B-1BE43D07A068}"/>
+    <workbookView xWindow="1485" yWindow="1215" windowWidth="21600" windowHeight="11385" xr2:uid="{8FDC40CD-C174-45E0-916B-1BE43D07A068}"/>
   </bookViews>
   <sheets>
     <sheet name="AttributeTable" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="20">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="22" uniqueCount="22">
   <si>
     <t>---</t>
   </si>
@@ -82,6 +82,12 @@
   <si>
     <t>Boss01_Enemy</t>
     <phoneticPr fontId="18" type="noConversion"/>
+  </si>
+  <si>
+    <t>Barrier</t>
+  </si>
+  <si>
+    <t>MoveSpeed</t>
   </si>
 </sst>
 </file>
@@ -734,10 +740,6 @@
     </ext>
   </extLst>
 </styleSheet>
-</file>
-
-<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
-<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -1057,10 +1059,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9D7ABEF3-88BC-4B70-9D24-84B401CA2F31}">
-  <dimension ref="A1:Q4"/>
+  <dimension ref="A1:S4"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E10" sqref="E10"/>
+      <selection activeCell="P9" sqref="P9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -1068,7 +1070,7 @@
     <col min="1" max="1" width="17.25" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -1120,8 +1122,14 @@
       <c r="Q1" t="s">
         <v>16</v>
       </c>
+      <c r="R1" t="s">
+        <v>20</v>
+      </c>
+      <c r="S1" t="s">
+        <v>21</v>
+      </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>17</v>
       </c>
@@ -1173,8 +1181,14 @@
       <c r="Q2">
         <v>0</v>
       </c>
+      <c r="R2">
+        <v>0</v>
+      </c>
+      <c r="S2">
+        <v>100</v>
+      </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>18</v>
       </c>
@@ -1226,8 +1240,14 @@
       <c r="Q3">
         <v>0</v>
       </c>
+      <c r="R3">
+        <v>0</v>
+      </c>
+      <c r="S3">
+        <v>100</v>
+      </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:19" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>19</v>
       </c>
@@ -1278,6 +1298,12 @@
       </c>
       <c r="Q4">
         <v>0</v>
+      </c>
+      <c r="R4">
+        <v>0</v>
+      </c>
+      <c r="S4">
+        <v>100</v>
       </c>
     </row>
   </sheetData>
